--- a/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_pol.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_pol.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.015474949622913</v>
+        <v>0.0107402699915947</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00140938341735022</v>
+        <v>-0.00289759134362644</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0295405158284757</v>
+        <v>0.0243781313268159</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -442,13 +442,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0312317670714738</v>
+        <v>0.0340762091468674</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0360612139578353</v>
+        <v>-0.0326454505877531</v>
       </c>
       <c r="D3" t="n">
-        <v>0.098524748100783</v>
+        <v>0.100797868881488</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -476,13 +476,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0130389855406318</v>
+        <v>0.0130389855406316</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0177332102876599</v>
+        <v>-0.01773321028766</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0438111813689234</v>
+        <v>0.0438111813689232</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -493,13 +493,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0262917238524928</v>
+        <v>0.0262917238524929</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.0107103242575551</v>
+        <v>-0.010710324257555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0632937719625406</v>
+        <v>0.0632937719625408</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -510,7 +510,7 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.00339132823804146</v>
+        <v>0.00339132823804149</v>
       </c>
       <c r="C7" t="n">
         <v>-0.0387251113448739</v>
@@ -527,13 +527,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.00269626530529831</v>
+        <v>-0.00272276783741773</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.0484216011825715</v>
+        <v>-0.0484554845665958</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0430290705719749</v>
+        <v>0.0430099488917604</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -544,13 +544,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0527958025394191</v>
+        <v>0.0526593662305047</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00484111423756056</v>
+        <v>-0.00497253964644953</v>
       </c>
       <c r="D9" t="n">
-        <v>0.110432719316399</v>
+        <v>0.110291272107459</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -561,13 +561,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00135664271127838</v>
+        <v>-0.00132375820580996</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.041664914920113</v>
+        <v>-0.0416398350829968</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0389516294975563</v>
+        <v>0.0389923186713769</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -578,7 +578,7 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00920322016048772</v>
+        <v>-0.00920322016048767</v>
       </c>
       <c r="C11" t="n">
         <v>-0.0645346698358917</v>
@@ -601,7 +601,7 @@
         <v>-0.0860542934892179</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0454635450744515</v>
+        <v>0.0454635450744516</v>
       </c>
       <c r="E12" t="s">
         <v>6</v>
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0279618732586241</v>
+        <v>0.0282401065731873</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00565065463421819</v>
+        <v>-0.00543354046212332</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0615744011514664</v>
+        <v>0.0619137536084979</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,13 +629,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.000955670406529491</v>
+        <v>-0.000603952531627238</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0365767009460747</v>
+        <v>-0.0362769839349241</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0346653601330157</v>
+        <v>0.0350690788716696</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -646,13 +646,13 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.024213696920027</v>
+        <v>0.024011403203459</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0170077476827584</v>
+        <v>-0.0172215315014591</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0654351415228124</v>
+        <v>0.065244337908377</v>
       </c>
       <c r="E15" t="s">
         <v>6</v>

--- a/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_pol.xlsx
+++ b/xlsx/country_comparison/share_solidarity_supported_by_info_solidarity_pol.xlsx
@@ -425,13 +425,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0107402699915947</v>
+        <v>0.0109163640116801</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.00289759134362644</v>
+        <v>-0.00273074860313183</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0243781313268159</v>
+        <v>0.0245634766264919</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -442,13 +442,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0340762091468674</v>
+        <v>0.0340937240911447</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0326454505877531</v>
+        <v>-0.0326240838554182</v>
       </c>
       <c r="D3" t="n">
-        <v>0.100797868881488</v>
+        <v>0.100811532037708</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -476,13 +476,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0130389855406316</v>
+        <v>0.0130389855406318</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.01773321028766</v>
+        <v>-0.0177332102876598</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0438111813689232</v>
+        <v>0.0438111813689235</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -493,13 +493,13 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0262917238524929</v>
+        <v>0.0262917238524928</v>
       </c>
       <c r="C6" t="n">
         <v>-0.010710324257555</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0632937719625408</v>
+        <v>0.0632937719625406</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -544,10 +544,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0526593662305047</v>
+        <v>0.0526593662305049</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.00497253964644953</v>
+        <v>-0.00497253964644942</v>
       </c>
       <c r="D9" t="n">
         <v>0.110291272107459</v>
@@ -561,13 +561,13 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.00132375820580996</v>
+        <v>-0.00132375820581005</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0416398350829968</v>
+        <v>-0.0416398350829967</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0389923186713769</v>
+        <v>0.0389923186713766</v>
       </c>
       <c r="E10" t="s">
         <v>6</v>
@@ -578,10 +578,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.00920322016048767</v>
+        <v>-0.0092032201604878</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0645346698358917</v>
+        <v>-0.0645346698358919</v>
       </c>
       <c r="D11" t="n">
         <v>0.0461282295149163</v>
@@ -612,13 +612,13 @@
         <v>17</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0282401065731873</v>
+        <v>0.0282401065731872</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.00543354046212332</v>
+        <v>-0.00543354046212329</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0619137536084979</v>
+        <v>0.0619137536084977</v>
       </c>
       <c r="E13" t="s">
         <v>6</v>
@@ -629,13 +629,13 @@
         <v>18</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.000603952531627238</v>
+        <v>-0.00060395253162736</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.0362769839349241</v>
+        <v>-0.0362769839349242</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0350690788716696</v>
+        <v>0.0350690788716695</v>
       </c>
       <c r="E14" t="s">
         <v>6</v>
@@ -646,7 +646,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="n">
-        <v>0.024011403203459</v>
+        <v>0.0240114032034589</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0172215315014591</v>
